--- a/CoffeeStore/ExcelBill/BL00007.xlsx
+++ b/CoffeeStore/ExcelBill/BL00007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -35,7 +35,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>02/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -53,7 +53,7 @@
     <t>Table:</t>
   </si>
   <si>
-    <t>TB012</t>
+    <t>TB001</t>
   </si>
   <si>
     <t>Num</t>
@@ -71,7 +71,7 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Apple Juice</t>
+    <t>Pearl Black Tea</t>
   </si>
   <si>
     <t xml:space="preserve"> - Size: M - Status: COLD</t>
@@ -95,16 +95,7 @@
     <t>2.</t>
   </si>
   <si>
-    <t>Black Diamond Coffee Smoothie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Red Bean</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Matcha Smoothie</t>
+    <t>Lemon Yogurt</t>
   </si>
   <si>
     <t>Total:</t>
@@ -651,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -761,10 +752,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="n" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>104000.0</v>
+        <v>171000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -851,7 +842,7 @@
         <v>2.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>164000.0</v>
+        <v>104000.0</v>
       </c>
       <c r="I20" s="10"/>
     </row>
@@ -929,153 +920,66 @@
     </row>
     <row r="27">
       <c r="A27" s="13"/>
-      <c r="B27" t="s" s="8">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="F28" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="F27" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="F28" t="n" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G28" t="n" s="7">
-        <v>154000.0</v>
+      <c r="H28" t="n" s="9">
+        <v>275000.0</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="F29" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H29" t="n" s="9">
+        <v>0.0</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
-      <c r="B30" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F30" t="n" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G30" t="n" s="8">
-        <v>12000.0</v>
+      <c r="F30" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" t="n" s="9">
+        <v>0.0</v>
       </c>
       <c r="I30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
-      <c r="B31" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="F31" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G31" t="n" s="8">
-        <v>8000.0</v>
-      </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
-      <c r="B32" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F32" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G32" t="n" s="8">
-        <v>6000.0</v>
+      <c r="C32" t="s" s="6">
+        <v>31</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
-      <c r="B33" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="F33" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G33" t="n" s="8">
-        <v>6000.0</v>
+      <c r="C33" t="s" s="6">
+        <v>32</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13"/>
-      <c r="F35" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H35" t="n" s="9">
-        <v>422000.0</v>
-      </c>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13"/>
-      <c r="F36" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="H36" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13"/>
-      <c r="F37" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="H37" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="13"/>
-      <c r="C39" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="13"/>
-      <c r="C40" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1117,30 +1021,17 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="A34:I34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:I41"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
